--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1946129108383907</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.499723289667178</v>
+        <v>-2.497725213854769</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07414320616841977</v>
+        <v>-0.07184363042523857</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1962357995465076</v>
+        <v>0.1953145092011442</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1834204499668717</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.70126248794385</v>
+        <v>-2.696686697226943</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1218575777793161</v>
+        <v>-0.1208691252217709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2495260948165842</v>
+        <v>0.2492136445251298</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1711339671842512</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.991165986754455</v>
+        <v>-2.986659548321865</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2210795259412894</v>
+        <v>-0.2185229817341083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2638141254342168</v>
+        <v>0.263634539519035</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1574804348192774</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.207352387479124</v>
+        <v>-3.203542391985898</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3065653416639937</v>
+        <v>-0.3038116909645399</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2747936870778502</v>
+        <v>0.2728839441749416</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1345727887218745</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.254604653869248</v>
+        <v>-3.252443052670657</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3575531410947073</v>
+        <v>-0.3555557953063442</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3058051085287509</v>
+        <v>0.3039274866838423</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.09831265501150169</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.04104852978035</v>
+        <v>-3.036784459330852</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4197380493345997</v>
+        <v>-0.4145285977462375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3034719516794788</v>
+        <v>0.3014673056506612</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04779983266514723</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.686273634242582</v>
+        <v>-2.683006046615128</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5206740939552998</v>
+        <v>-0.5185307433578459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2845803894312112</v>
+        <v>0.2848957598188475</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.01631828579919565</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.258380260336152</v>
+        <v>-2.254013986520289</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5205733506370271</v>
+        <v>-0.5205631303003908</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2814296056510302</v>
+        <v>0.2829144745594844</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0980919495921912</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.876658717232572</v>
+        <v>-1.874456234687436</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5936151764809167</v>
+        <v>-0.5920748257450079</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2964841615163898</v>
+        <v>0.2976448997486622</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2039782319641636</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.370733073107526</v>
+        <v>-1.370197235458163</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.731567820350425</v>
+        <v>-0.7288886321036075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3084623960542048</v>
+        <v>0.3099837661649316</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3339439448093985</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8292859189787625</v>
+        <v>-0.8229463901680368</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8920373258779274</v>
+        <v>-0.8911846577928367</v>
       </c>
       <c r="G12" t="n">
-        <v>0.355426302946374</v>
+        <v>0.3568644503159191</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.489057483595885</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3285522058649878</v>
+        <v>-0.3197028543859902</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.200091412530663</v>
+        <v>-1.194940362865937</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3888190628335468</v>
+        <v>0.3898688374109102</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6655883268350783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2698222233283061</v>
+        <v>0.2783970857662129</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.628066549130184</v>
+        <v>-1.624353646835003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4887783352814291</v>
+        <v>0.4888162965317927</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8577465064175838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8860340600482315</v>
+        <v>0.8962149753861378</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.029452019922122</v>
+        <v>-2.024992303028442</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5707264544798616</v>
+        <v>0.5727077397392247</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.059134401728136</v>
       </c>
       <c r="E16" t="n">
-        <v>1.367613402257375</v>
+        <v>1.382028457058917</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.422304969670789</v>
+        <v>-2.4156946019392</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6892911197501934</v>
+        <v>0.6926755112249198</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.273307444997097</v>
       </c>
       <c r="E17" t="n">
-        <v>1.912904863009501</v>
+        <v>1.923027376423771</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.779643709656193</v>
+        <v>-2.772839155528513</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8052641996591623</v>
+        <v>0.8076104969412525</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.511228609801048</v>
       </c>
       <c r="E18" t="n">
-        <v>2.323022151409118</v>
+        <v>2.330334072248389</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.114508659402285</v>
+        <v>-3.110837368477695</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9371561839033087</v>
+        <v>0.940909967545035</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.774529058575275</v>
       </c>
       <c r="E19" t="n">
-        <v>2.768038969325726</v>
+        <v>2.774679268043179</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.38642655580503</v>
+        <v>-3.383201309572213</v>
       </c>
       <c r="G19" t="n">
-        <v>1.11060697700708</v>
+        <v>1.116066096818988</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.057499522936847</v>
       </c>
       <c r="E20" t="n">
-        <v>3.082850158543187</v>
+        <v>3.085354141019096</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.658021051555639</v>
+        <v>-3.654710392509504</v>
       </c>
       <c r="G20" t="n">
-        <v>1.250415342000134</v>
+        <v>1.256608866001768</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.341857253860675</v>
       </c>
       <c r="E21" t="n">
-        <v>3.415654980433007</v>
+        <v>3.419921240954642</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.883099875177988</v>
+        <v>-3.879039481437171</v>
       </c>
       <c r="G21" t="n">
-        <v>1.369266176696283</v>
+        <v>1.374661054392191</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.609440057550768</v>
       </c>
       <c r="E22" t="n">
-        <v>3.730369806476468</v>
+        <v>3.735519396093103</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.051099578734352</v>
+        <v>-4.045445542502308</v>
       </c>
       <c r="G22" t="n">
-        <v>1.437705930957629</v>
+        <v>1.444099481547718</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.841835717910489</v>
       </c>
       <c r="E23" t="n">
-        <v>3.933214287746413</v>
+        <v>3.935475902239231</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.16353642216714</v>
+        <v>-4.160311175934322</v>
       </c>
       <c r="G23" t="n">
-        <v>1.523956811879969</v>
+        <v>1.528100428361968</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.023077432889251</v>
       </c>
       <c r="E24" t="n">
-        <v>4.088433460339008</v>
+        <v>4.093863379189098</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.223653902310305</v>
+        <v>-4.224343045009214</v>
       </c>
       <c r="G24" t="n">
-        <v>1.574210207120956</v>
+        <v>1.578610792066955</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.145289841024024</v>
       </c>
       <c r="E25" t="n">
-        <v>4.190001705783072</v>
+        <v>4.19382265163698</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.253640370001389</v>
+        <v>-4.256071350072752</v>
       </c>
       <c r="G25" t="n">
-        <v>1.589943685348588</v>
+        <v>1.594604158854769</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.204879526722422</v>
       </c>
       <c r="E26" t="n">
-        <v>4.217758680039337</v>
+        <v>4.222553477969881</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.165412583963958</v>
+        <v>-4.17063809608132</v>
       </c>
       <c r="G26" t="n">
-        <v>1.542835233695419</v>
+        <v>1.549547074769326</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.207152932736974</v>
       </c>
       <c r="E27" t="n">
-        <v>4.174739823088803</v>
+        <v>4.181812296041165</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.09685602585534</v>
+        <v>-4.10313058252602</v>
       </c>
       <c r="G27" t="n">
-        <v>1.517753067541698</v>
+        <v>1.522782933214879</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.161098486075126</v>
       </c>
       <c r="E28" t="n">
-        <v>4.128145308363633</v>
+        <v>4.134934531986359</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.932118069734066</v>
+        <v>-3.938130547772428</v>
       </c>
       <c r="G28" t="n">
-        <v>1.427254906722904</v>
+        <v>1.435353793483175</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.077605975967365</v>
       </c>
       <c r="E29" t="n">
-        <v>3.973588997604312</v>
+        <v>3.981600281479127</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.764961543950201</v>
+        <v>-3.770481985781927</v>
       </c>
       <c r="G29" t="n">
-        <v>1.325705641904023</v>
+        <v>1.332684671778566</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.967600105691466</v>
       </c>
       <c r="E30" t="n">
-        <v>3.873239892316157</v>
+        <v>3.881981200236427</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.604202218876654</v>
+        <v>-3.609292676545607</v>
       </c>
       <c r="G30" t="n">
-        <v>1.235373926567592</v>
+        <v>1.24306691995859</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.838330445973925</v>
       </c>
       <c r="E31" t="n">
-        <v>3.717525763420744</v>
+        <v>3.725145754407196</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.457237428166011</v>
+        <v>-3.462560033481419</v>
       </c>
       <c r="G31" t="n">
-        <v>1.138161004578709</v>
+        <v>1.14581019652698</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.696563039303411</v>
       </c>
       <c r="E32" t="n">
-        <v>3.560904944660877</v>
+        <v>3.566239960385057</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.265032317334517</v>
+        <v>-3.273975111891333</v>
       </c>
       <c r="G32" t="n">
-        <v>1.024728408347922</v>
+        <v>1.030888351243465</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.548290302682746</v>
       </c>
       <c r="E33" t="n">
-        <v>3.380926276542652</v>
+        <v>3.386896413186378</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.121500829709647</v>
+        <v>-3.131486098603371</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9730470860740263</v>
+        <v>0.9775790753482069</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.397372171314302</v>
       </c>
       <c r="E34" t="n">
-        <v>3.192253022043067</v>
+        <v>3.19405764148343</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.106311219395878</v>
+        <v>-3.114649554043058</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8792229357041424</v>
+        <v>0.8834161938212322</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.249054928196162</v>
       </c>
       <c r="E35" t="n">
-        <v>2.900024396647691</v>
+        <v>2.897040058349873</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.989186161543183</v>
+        <v>-2.997156564071453</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8296484628254285</v>
+        <v>0.8347060694123362</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.105264771665527</v>
       </c>
       <c r="E36" t="n">
-        <v>2.609101054245587</v>
+        <v>2.609209097804314</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.931739109358289</v>
+        <v>-2.940257759944696</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7649478917249004</v>
+        <v>0.7688871014741721</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.970572484165064</v>
       </c>
       <c r="E37" t="n">
-        <v>2.347460436354748</v>
+        <v>2.349047508629566</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.86684435186167</v>
+        <v>-2.873657666277895</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7191199022474581</v>
+        <v>0.7203711634613669</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.847591766350236</v>
       </c>
       <c r="E38" t="n">
-        <v>2.039476432010376</v>
+        <v>2.040990501880648</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.791575952679145</v>
+        <v>-2.798192890627143</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6416059491011153</v>
+        <v>0.6443902608104782</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.73681084902244</v>
       </c>
       <c r="E39" t="n">
-        <v>1.756432969154907</v>
+        <v>1.756200821508452</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.667142624107405</v>
+        <v>-2.675941603927267</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6186992546028487</v>
+        <v>0.619702307641303</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.638590731659618</v>
       </c>
       <c r="E40" t="n">
-        <v>1.523140644997151</v>
+        <v>1.519817575542243</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.548667751794664</v>
+        <v>-2.557365258272208</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5448500221646867</v>
+        <v>0.5468517480973226</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.548492131639274</v>
       </c>
       <c r="E41" t="n">
-        <v>1.275182137766218</v>
+        <v>1.274599578577945</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.434838752507195</v>
+        <v>-2.443522388527875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4821832980547945</v>
+        <v>0.4839937576875213</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.464466948591245</v>
       </c>
       <c r="E42" t="n">
-        <v>1.061912913127184</v>
+        <v>1.060822257203275</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.315936816127863</v>
+        <v>-2.32533879580927</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4158401728519941</v>
+        <v>0.4160299791038122</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.38128971433155</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8606861651419656</v>
+        <v>0.8579339744906027</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.213754620461573</v>
+        <v>-2.221660780873843</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3604430281867363</v>
+        <v>0.3604766092928272</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.296468348249304</v>
       </c>
       <c r="E44" t="n">
-        <v>0.697213340691464</v>
+        <v>0.6956131279838281</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.151928884052044</v>
+        <v>-2.159504343571724</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2711859082452148</v>
+        <v>0.2714414166611238</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.208800962983792</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5180654399369666</v>
+        <v>0.5169704038687851</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.046514871936527</v>
+        <v>-2.054549516580797</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2387144387034053</v>
+        <v>0.2391933344772234</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.117334961207683</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3490239920677393</v>
+        <v>0.3485669970152849</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.973388363303364</v>
+        <v>-1.981273353018317</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2116509872903217</v>
+        <v>0.2142892941905937</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.024439547350353</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1768040195046038</v>
+        <v>0.1748796761207861</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.91236492331979</v>
+        <v>-1.922219517909378</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1431966325480673</v>
+        <v>0.1447267629473396</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9307171983205395</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05359348120900048</v>
+        <v>0.05026019141745592</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.864197936800712</v>
+        <v>-1.8723581455808</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1295320424652528</v>
+        <v>0.1317177344573431</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8390685752696909</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08056887781650895</v>
+        <v>-0.0834656132288718</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.788309747203596</v>
+        <v>-1.798541764224684</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07756893090981222</v>
+        <v>0.08008459377044791</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7500892401536761</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1855273549276626</v>
+        <v>-0.1886095164475708</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.765459994580875</v>
+        <v>-1.775967960691145</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04069833647009485</v>
+        <v>0.04403454635782122</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6651660010254766</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2952412086709059</v>
+        <v>-0.3018508463784496</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.710084750636981</v>
+        <v>-1.72187755906725</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03576191387473254</v>
+        <v>0.04084726137536754</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5851317677027433</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3524283722956177</v>
+        <v>-0.3571545479658892</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.702733408499255</v>
+        <v>-1.714600679382161</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02620982734388718</v>
+        <v>-0.02256408726088816</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5093812079701771</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4552902203482265</v>
+        <v>-0.4582438976361348</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.695322204389803</v>
+        <v>-1.707298978879527</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0290160397746137</v>
+        <v>-0.02592219786997817</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4391501459809951</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4934514973003072</v>
+        <v>-0.4928236766212165</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.682051827291533</v>
+        <v>-1.693901577597348</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06448206795087691</v>
+        <v>-0.06095459176324149</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3736073686517095</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.615501297363638</v>
+        <v>-0.6139872274933658</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.662494483113812</v>
+        <v>-1.672666638163172</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08774063403905248</v>
+        <v>-0.08543959824778037</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3136487490080457</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6985356923417066</v>
+        <v>-0.6970800243950707</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.628149771871366</v>
+        <v>-1.635908467426455</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1094442489104103</v>
+        <v>-0.1065650340751383</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2593189384744987</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8267264546753995</v>
+        <v>-0.8253832104317635</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.665439400113174</v>
+        <v>-1.674887371309445</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1118241272985915</v>
+        <v>-0.1077973146638653</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2107161627701091</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8980206029544713</v>
+        <v>-0.8966291771238353</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.640409795690726</v>
+        <v>-1.64663398070227</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1536296842855802</v>
+        <v>-0.1502949344459448</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1681890844395186</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.013304540164531</v>
+        <v>-1.013884179256622</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.651764589693723</v>
+        <v>-1.658813701876631</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1763918340228469</v>
+        <v>-0.1729139994703023</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1304800759966099</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.053816494542975</v>
+        <v>-1.051762206879066</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.648307195814452</v>
+        <v>-1.657074784600358</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1885481944277527</v>
+        <v>-0.1857157011313898</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.09748765520115718</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.137129758706407</v>
+        <v>-1.134422829545862</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.694187747023167</v>
+        <v>-1.701106914925983</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2486627544747365</v>
+        <v>-0.2446841234270103</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.067857172636694</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.190227327628484</v>
+        <v>-1.188828601557393</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.698042273983166</v>
+        <v>-1.704670892315891</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2934891509618154</v>
+        <v>-0.2907953622340889</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.04108290252133551</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.259112396557556</v>
+        <v>-1.259868701468647</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.745756645594062</v>
+        <v>-1.752894820710514</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3116521492127196</v>
+        <v>-0.3088561571186295</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.01608424460396214</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.327155017738174</v>
+        <v>-1.329390351365355</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.777071757047872</v>
+        <v>-1.785391111069869</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3579882354257981</v>
+        <v>-0.3551630423698898</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.008079166897953419</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.34433978376817</v>
+        <v>-1.346745943021987</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.86224220238294</v>
+        <v>-1.870909777874619</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3541891902932537</v>
+        <v>-0.3518107719531634</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.031419889868046</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.371711305328435</v>
+        <v>-1.373971459773162</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.972167763099365</v>
+        <v>-1.979921348486135</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3848034786634272</v>
+        <v>-0.3828426340773369</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.05396721606736325</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.414125702369333</v>
+        <v>-1.416746488692514</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.044241577058981</v>
+        <v>-2.054579447566661</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3596074287586158</v>
+        <v>-0.3554419115552533</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.07479769248666543</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.443414267072961</v>
+        <v>-1.444804232855506</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.158114377789178</v>
+        <v>-2.167712733938812</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4237780024021441</v>
+        <v>-0.4189759042311453</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.09289909099555108</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.442357192255143</v>
+        <v>-1.443144158176143</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.302414580733912</v>
+        <v>-2.312942987517455</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4442843778389567</v>
+        <v>-0.4374805537353222</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1067879076187712</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.468327067648136</v>
+        <v>-1.465306228148046</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.426982963754061</v>
+        <v>-2.436130895067649</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4588249967763165</v>
+        <v>-0.4539119349504087</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1155256040865614</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.502887866008036</v>
+        <v>-1.500407244301582</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.589241028192926</v>
+        <v>-2.597291003342151</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5185249031654823</v>
+        <v>-0.5131095847963019</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1184475721876238</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.510210007183943</v>
+        <v>-1.505061877615399</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.686165590683855</v>
+        <v>-2.693360707675853</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5372120586810227</v>
+        <v>-0.5309645129000243</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1155520951542956</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.492817914325039</v>
+        <v>-1.487615762977131</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.805265363579505</v>
+        <v>-2.812010055735457</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.545842402946384</v>
+        <v>-0.5366178191080229</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1067231452125223</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.545211740067298</v>
+        <v>-1.539844603285117</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.939812445276968</v>
+        <v>-2.945259884704149</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5558320519843813</v>
+        <v>-0.5460949912661113</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.09245472279898208</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.421507705516967</v>
+        <v>-1.415306881274878</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.999397737890998</v>
+        <v>-3.004336350558497</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5904833733259175</v>
+        <v>-0.5810514626586473</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.07372048295398635</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.318499852655267</v>
+        <v>-1.310393665654542</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.060100697318618</v>
+        <v>-3.064361847671935</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5816135811736471</v>
+        <v>-0.5730051376296494</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05141276385342619</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.205049735847389</v>
+        <v>-1.197834178182118</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.135882303405098</v>
+        <v>-3.138922853554415</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5553458559701088</v>
+        <v>-0.5441370667762027</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.02620553011426857</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.071827647792425</v>
+        <v>-1.062073066497064</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.194731731781309</v>
+        <v>-3.197006486706945</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5660699091978332</v>
+        <v>-0.5535806578282001</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.001853853866796909</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8709848924551149</v>
+        <v>-0.8611719092361175</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.25705972473411</v>
+        <v>-3.260929582199064</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.563482703980743</v>
+        <v>-0.5527002488293822</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.03242517796907173</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6623060590138982</v>
+        <v>-0.6486429289791746</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.2953962074571</v>
+        <v>-3.296059069290373</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5273421335864799</v>
+        <v>-0.514706877407756</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.06596090505728462</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.412504971092238</v>
+        <v>-0.4003486106873322</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.341134403976952</v>
+        <v>-3.339904313460361</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4891589559130356</v>
+        <v>-0.4771296196920388</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1021921376839266</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1465557512851276</v>
+        <v>-0.1293344840528595</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.287144015647284</v>
+        <v>-3.283587338497831</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4502705750116824</v>
+        <v>-0.4398925531815034</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1406315843506923</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1379112584589778</v>
+        <v>0.1514181633479742</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.280181046301741</v>
+        <v>-3.274050304368015</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4320842159913236</v>
+        <v>-0.4224143174852353</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1800257939673579</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4597730199074369</v>
+        <v>0.4737296196084331</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.230052485172527</v>
+        <v>-3.225706652029937</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3843362632743365</v>
+        <v>-0.3744108563523391</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.219113736346679</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7377720166088167</v>
+        <v>0.749283035757541</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.145029504694641</v>
+        <v>-3.135100447652416</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3416824183465297</v>
+        <v>-0.3318694351275324</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2566729425123317</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9912392852867487</v>
+        <v>1.003633633530473</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.057463850466437</v>
+        <v>-3.046557291227349</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2671352829209134</v>
+        <v>-0.2578114158123704</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2909461132330244</v>
       </c>
       <c r="E87" t="n">
-        <v>1.180709726043971</v>
+        <v>1.191295074703059</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.938710838992378</v>
+        <v>-2.925371839633836</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2310998359891958</v>
+        <v>-0.221694206187562</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3198636168688323</v>
       </c>
       <c r="E88" t="n">
-        <v>1.346420804217835</v>
+        <v>1.354229141408015</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.706422297897122</v>
+        <v>-2.691837147492989</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2282921635103784</v>
+        <v>-0.2191581026536536</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3402084989841239</v>
       </c>
       <c r="E89" t="n">
-        <v>1.487662936436161</v>
+        <v>1.495585157377431</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.473650480883776</v>
+        <v>-2.459450053151597</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1589924409234879</v>
+        <v>-0.1493532034273087</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3488629891157877</v>
       </c>
       <c r="E90" t="n">
-        <v>1.608978332309765</v>
+        <v>1.611981651232764</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.194057841691169</v>
+        <v>-2.179469041166809</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1541275606845801</v>
+        <v>-0.1480391601454908</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3432618035719832</v>
       </c>
       <c r="E91" t="n">
-        <v>1.650684606026572</v>
+        <v>1.655054529962661</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.9077219703907</v>
+        <v>-1.893687988140886</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08861812294168861</v>
+        <v>-0.0836670998654172</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3220663567154969</v>
       </c>
       <c r="E92" t="n">
-        <v>1.619090625387398</v>
+        <v>1.624653408613761</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.553347128029841</v>
+        <v>-1.541284210702753</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09965608650895837</v>
+        <v>-0.09496495199286872</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.285795077773223</v>
       </c>
       <c r="E93" t="n">
-        <v>1.649899100153663</v>
+        <v>1.655006348375661</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.219156720501749</v>
+        <v>-1.207447134812661</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1286015399112233</v>
+        <v>-0.1236519768830428</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2374413868368669</v>
       </c>
       <c r="E94" t="n">
-        <v>1.603803921875584</v>
+        <v>1.612169997436491</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9720333607788151</v>
+        <v>-0.9647535609975443</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1337321489026765</v>
+        <v>-0.1289811524148596</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1815341195035281</v>
       </c>
       <c r="E95" t="n">
-        <v>1.594738483279132</v>
+        <v>1.604982180684948</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6777227068058032</v>
+        <v>-0.6729366691638045</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1905280196390249</v>
+        <v>-0.1859595291625716</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.124029094364443</v>
       </c>
       <c r="E96" t="n">
-        <v>1.498697979907249</v>
+        <v>1.512337749172518</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4023036150810589</v>
+        <v>-0.4001807051568776</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.217503868166654</v>
+        <v>-0.2141851788560185</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07052459479366899</v>
       </c>
       <c r="E97" t="n">
-        <v>1.382406609514462</v>
+        <v>1.396496073591731</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1996036785721134</v>
+        <v>-0.2009177218539312</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3188779272146268</v>
+        <v>-0.3158249666565367</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02462366874995885</v>
       </c>
       <c r="E98" t="n">
-        <v>1.308242006688664</v>
+        <v>1.321464202199933</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04066576349197421</v>
+        <v>-0.04210975105388291</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3220856528703532</v>
+        <v>-0.3167783780599001</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01105433924296071</v>
       </c>
       <c r="E99" t="n">
-        <v>1.158581237178158</v>
+        <v>1.173390504964245</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07370418361317689</v>
+        <v>0.07129802435935936</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.333474027979441</v>
+        <v>-0.3280470292255334</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04119666344650208</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9976722571752924</v>
+        <v>1.013627662712743</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1662610122401521</v>
+        <v>0.1622210591726077</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3705563293923402</v>
+        <v>-0.3654008995833415</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06672931219117635</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8385532961318806</v>
+        <v>0.8572214710222392</v>
       </c>
       <c r="F101" t="n">
-        <v>0.214683507175139</v>
+        <v>0.2117926119551398</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3361634365628949</v>
+        <v>-0.3292895301508967</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09621431462535146</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7366740604444534</v>
+        <v>0.7538690468110851</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2329866700427705</v>
+        <v>0.2306987746843166</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.351225292668709</v>
+        <v>-0.3460377418017104</v>
       </c>
     </row>
   </sheetData>
